--- a/catwebservice/src/main/resources/datas/share/share.xlsx
+++ b/catwebservice/src/main/resources/datas/share/share.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>日期</t>
   </si>
@@ -41,11 +41,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>昨日收盘价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>涨跌比例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>昨日收盘价</t>
+    <t>涨跌$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -414,7 +418,7 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,7 +426,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -431,7 +435,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -444,6 +448,9 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
